--- a/Env.xlsx
+++ b/Env.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\张珂文件\科研成果\气候变化\投稿\CGB\大修\Data and Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7DDFD6-6BA9-4620-AA6B-DA7C9D4288EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EDA203-62F8-4AFD-B40F-6F6678E71446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="soil" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="49">
   <si>
     <t>S-CK-1</t>
   </si>
@@ -175,6 +175,13 @@
   </si>
   <si>
     <t>nifH</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1582,8 +1589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB054B16-6E53-4340-A92A-A434B685E96F}">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" activeCellId="1" sqref="I2:I7 I11:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1611,7 +1618,7 @@
         <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s">
         <v>15</v>
@@ -1682,7 +1689,7 @@
         <v>30.893999999999998</v>
       </c>
       <c r="I2">
-        <v>0.66200000000000003</v>
+        <v>0.29194999999999999</v>
       </c>
       <c r="J2">
         <v>0.22653061224489801</v>
@@ -1753,7 +1760,7 @@
         <v>34.47</v>
       </c>
       <c r="I3">
-        <v>0.623</v>
+        <v>0.10818</v>
       </c>
       <c r="J3">
         <v>0.1948275862068965</v>
@@ -1824,7 +1831,7 @@
         <v>38.875</v>
       </c>
       <c r="I4">
-        <v>0.69699999999999995</v>
+        <v>0.46046999999999999</v>
       </c>
       <c r="J4">
         <v>0.13441955193482691</v>
@@ -1895,7 +1902,7 @@
         <v>28.562095997799481</v>
       </c>
       <c r="I5">
-        <v>0.76100000000000001</v>
+        <v>9.0100000000000013E-2</v>
       </c>
       <c r="J5">
         <v>0.17183098591549306</v>
@@ -1966,7 +1973,7 @@
         <v>43.771000000000001</v>
       </c>
       <c r="I6">
-        <v>0.73399999999999999</v>
+        <v>0.10872</v>
       </c>
       <c r="J6">
         <v>0.25229357798165125</v>
@@ -2037,7 +2044,7 @@
         <v>21.042000000000002</v>
       </c>
       <c r="I7">
-        <v>0.69699999999999995</v>
+        <v>6.9379999999999997E-2</v>
       </c>
       <c r="J7">
         <v>0.25925925925925919</v>
@@ -2108,7 +2115,7 @@
         <v>63.932000000000002</v>
       </c>
       <c r="I8">
-        <v>0.64600000000000002</v>
+        <v>0.19462000000000002</v>
       </c>
       <c r="J8">
         <v>0.12230215827338123</v>
@@ -2179,7 +2186,7 @@
         <v>51.165999999999997</v>
       </c>
       <c r="I9">
-        <v>0.67500000000000004</v>
+        <v>0.42591999999999997</v>
       </c>
       <c r="J9">
         <v>0.18631178707224308</v>
@@ -2250,7 +2257,7 @@
         <v>50.561999999999998</v>
       </c>
       <c r="I10">
-        <v>0.68</v>
+        <v>0.12146999999999999</v>
       </c>
       <c r="J10">
         <v>0.22611464968152861</v>
@@ -2321,7 +2328,7 @@
         <v>60.351999999999997</v>
       </c>
       <c r="I11">
-        <v>0.70099999999999996</v>
+        <v>0.20673</v>
       </c>
       <c r="J11">
         <v>0.28029504741833516</v>
@@ -2392,7 +2399,7 @@
         <v>51.668999999999997</v>
       </c>
       <c r="I12">
-        <v>0.65300000000000002</v>
+        <v>0.13450000000000001</v>
       </c>
       <c r="J12">
         <v>0.2475822050290136</v>
@@ -2463,7 +2470,7 @@
         <v>35.271999999999998</v>
       </c>
       <c r="I13">
-        <v>0.74399999999999999</v>
+        <v>0.18686999999999998</v>
       </c>
       <c r="J13">
         <v>0.24504950495049516</v>
@@ -2534,7 +2541,7 @@
         <v>82.929000000000002</v>
       </c>
       <c r="I14">
-        <v>0.68</v>
+        <v>0.21635000000000001</v>
       </c>
       <c r="J14">
         <v>0.21523178807946999</v>
@@ -2605,7 +2612,7 @@
         <v>49.966999999999999</v>
       </c>
       <c r="I15">
-        <v>0.72399999999999998</v>
+        <v>0.11924999999999999</v>
       </c>
       <c r="J15">
         <v>0.30831099195710465</v>
@@ -2676,7 +2683,7 @@
         <v>40.643999999999998</v>
       </c>
       <c r="I16">
-        <v>0.72799999999999998</v>
+        <v>0.12483</v>
       </c>
       <c r="J16">
         <v>0.28933333333333328</v>
@@ -2732,8 +2739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE765D2-29A6-4D85-A297-DE237708C3F7}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:S13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2752,7 +2759,7 @@
         <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
@@ -2811,7 +2818,7 @@
         <v>3.8340000000000001</v>
       </c>
       <c r="F2">
-        <v>0.66200000000000003</v>
+        <v>0.29194999999999999</v>
       </c>
       <c r="G2">
         <v>15.815</v>
@@ -2870,7 +2877,7 @@
         <v>3.7640000000000002</v>
       </c>
       <c r="F3">
-        <v>0.623</v>
+        <v>0.10818</v>
       </c>
       <c r="G3">
         <v>43.191000000000003</v>
@@ -2929,7 +2936,7 @@
         <v>3.8169999999999997</v>
       </c>
       <c r="F4">
-        <v>0.69699999999999995</v>
+        <v>0.46046999999999999</v>
       </c>
       <c r="G4">
         <v>1.903</v>
@@ -2988,7 +2995,7 @@
         <v>2.7629999999999999</v>
       </c>
       <c r="F5">
-        <v>0.76100000000000001</v>
+        <v>9.0100000000000013E-2</v>
       </c>
       <c r="G5">
         <v>2.0590000000000002</v>
@@ -3047,7 +3054,7 @@
         <v>4.2859999999999996</v>
       </c>
       <c r="F6">
-        <v>0.73399999999999999</v>
+        <v>0.10872</v>
       </c>
       <c r="G6">
         <v>22.212</v>
@@ -3106,7 +3113,7 @@
         <v>3.7869999999999999</v>
       </c>
       <c r="F7">
-        <v>0.69699999999999995</v>
+        <v>6.9379999999999997E-2</v>
       </c>
       <c r="G7">
         <v>2.39</v>
@@ -3165,7 +3172,7 @@
         <v>3.7850000000000001</v>
       </c>
       <c r="F8">
-        <v>0.70099999999999996</v>
+        <v>0.20673</v>
       </c>
       <c r="G8">
         <v>6.298</v>
@@ -3224,7 +3231,7 @@
         <v>3.4790000000000001</v>
       </c>
       <c r="F9">
-        <v>0.65300000000000002</v>
+        <v>0.13450000000000001</v>
       </c>
       <c r="G9">
         <v>1.3979999999999999</v>
@@ -3283,7 +3290,7 @@
         <v>3.746</v>
       </c>
       <c r="F10">
-        <v>0.74399999999999999</v>
+        <v>0.18686999999999998</v>
       </c>
       <c r="G10">
         <v>20.204000000000001</v>
@@ -3342,7 +3349,7 @@
         <v>4.258</v>
       </c>
       <c r="F11">
-        <v>0.68</v>
+        <v>0.21635000000000001</v>
       </c>
       <c r="G11">
         <v>1.726</v>
@@ -3401,7 +3408,7 @@
         <v>3.2869999999999999</v>
       </c>
       <c r="F12">
-        <v>0.72399999999999998</v>
+        <v>0.11924999999999999</v>
       </c>
       <c r="G12">
         <v>4.7610000000000001</v>
@@ -3460,7 +3467,7 @@
         <v>4.0659999999999998</v>
       </c>
       <c r="F13">
-        <v>0.72799999999999998</v>
+        <v>0.12483</v>
       </c>
       <c r="G13">
         <v>21.553000000000001</v>
